--- a/data/2025_maps/2025Q2_map.xlsx
+++ b/data/2025_maps/2025Q2_map.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>location</t>
   </si>
@@ -74,13 +74,22 @@
   </si>
   <si>
     <t>ISTAT</t>
+  </si>
+  <si>
+    <t>Mälardalen University</t>
+  </si>
+  <si>
+    <t>Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Newcastle University</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -97,6 +106,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -122,6 +136,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -334,7 +352,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -550,6 +571,108 @@
         <v>12.5113</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>59.6099</v>
+      </c>
+      <c r="C20" s="3">
+        <v>16.5448</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43.361</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-5.8494</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>54.9783</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-1.6178</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
